--- a/prediction/media_effect_final_index_changing.xlsx
+++ b/prediction/media_effect_final_index_changing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\혜원\코알라유니브\해커톤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\AI_JAM_KOREA_2020_EWHA\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE9E61D-AADE-49F7-8804-C14DBE1B6189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6E24D-983F-49EF-86EC-F17376EF156C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$402</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$402</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="808">
   <si>
     <t>[청원] 헌법의 평등권의 원칙에 위배되는 여성폭력방지법의 폐기를 청원합니다.</t>
   </si>
@@ -2680,6 +2680,10 @@
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3142,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3153,7 +3157,7 @@
     <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
@@ -3169,8 +3173,11 @@
       <c r="E1" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F1" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3186,8 +3193,11 @@
       <c r="E2">
         <v>17221</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3203,8 +3213,11 @@
       <c r="E3">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3220,8 +3233,11 @@
       <c r="E4">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3237,8 +3253,11 @@
       <c r="E5">
         <v>11788</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3254,8 +3273,11 @@
       <c r="E6">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3271,8 +3293,11 @@
       <c r="E7">
         <v>1150</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3288,8 +3313,11 @@
       <c r="E8">
         <v>10230</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3305,8 +3333,11 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3322,8 +3353,11 @@
       <c r="E10">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3339,8 +3373,11 @@
       <c r="E11">
         <v>985</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3356,8 +3393,11 @@
       <c r="E12">
         <v>1935</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3373,8 +3413,11 @@
       <c r="E13">
         <v>247</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3390,8 +3433,11 @@
       <c r="E14">
         <v>4357</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3407,8 +3453,11 @@
       <c r="E15">
         <v>1470</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3424,8 +3473,11 @@
       <c r="E16">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3441,8 +3493,11 @@
       <c r="E17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3458,8 +3513,11 @@
       <c r="E18">
         <v>5062</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3475,8 +3533,11 @@
       <c r="E19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3492,8 +3553,11 @@
       <c r="E20">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3509,8 +3573,11 @@
       <c r="E21">
         <v>4005</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3526,8 +3593,11 @@
       <c r="E22">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3543,8 +3613,11 @@
       <c r="E23">
         <v>1146</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3560,8 +3633,11 @@
       <c r="E24">
         <v>2178</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3577,8 +3653,11 @@
       <c r="E25">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3594,8 +3673,11 @@
       <c r="E26">
         <v>2844</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3611,8 +3693,11 @@
       <c r="E27">
         <v>5571</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3628,8 +3713,11 @@
       <c r="E28">
         <v>112859</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3645,8 +3733,11 @@
       <c r="E29">
         <v>99146</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3662,8 +3753,11 @@
       <c r="E30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3679,8 +3773,11 @@
       <c r="E31">
         <v>1166</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3696,8 +3793,11 @@
       <c r="E32">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3713,8 +3813,11 @@
       <c r="E33">
         <v>6716</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3730,8 +3833,11 @@
       <c r="E34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3747,8 +3853,11 @@
       <c r="E35">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3764,8 +3873,11 @@
       <c r="E36">
         <v>431</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3781,8 +3893,11 @@
       <c r="E37">
         <v>3753</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3798,8 +3913,11 @@
       <c r="E38">
         <v>44434</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3815,8 +3933,11 @@
       <c r="E39">
         <v>2566</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3832,8 +3953,11 @@
       <c r="E40">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3849,8 +3973,11 @@
       <c r="E41">
         <v>6065</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3866,8 +3993,11 @@
       <c r="E42">
         <v>3411</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3883,8 +4013,11 @@
       <c r="E43">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3900,8 +4033,11 @@
       <c r="E44">
         <v>830</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3917,8 +4053,11 @@
       <c r="E45">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3934,8 +4073,11 @@
       <c r="E46">
         <v>1475</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3951,8 +4093,11 @@
       <c r="E47">
         <v>574</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3968,8 +4113,11 @@
       <c r="E48">
         <v>1997</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="E49">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4002,8 +4153,11 @@
       <c r="E50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4019,8 +4173,11 @@
       <c r="E51">
         <v>439</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4036,8 +4193,11 @@
       <c r="E52">
         <v>3531</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4053,8 +4213,11 @@
       <c r="E53">
         <v>277</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4070,8 +4233,11 @@
       <c r="E54">
         <v>136</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4087,8 +4253,11 @@
       <c r="E55">
         <v>10368</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4104,8 +4273,11 @@
       <c r="E56">
         <v>984</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4121,8 +4293,11 @@
       <c r="E57">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4313,11 @@
       <c r="E58">
         <v>3977</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4155,8 +4333,11 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4172,8 +4353,11 @@
       <c r="E60">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4189,8 +4373,11 @@
       <c r="E61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4206,8 +4393,11 @@
       <c r="E62">
         <v>21010</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4223,8 +4413,11 @@
       <c r="E63">
         <v>226</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4240,8 +4433,11 @@
       <c r="E64">
         <v>231</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4257,8 +4453,11 @@
       <c r="E65">
         <v>888</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4274,8 +4473,11 @@
       <c r="E66">
         <v>2889</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4291,8 +4493,11 @@
       <c r="E67">
         <v>106</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4308,8 +4513,11 @@
       <c r="E68">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4325,8 +4533,11 @@
       <c r="E69">
         <v>1102</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4342,8 +4553,11 @@
       <c r="E70">
         <v>831</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4359,8 +4573,11 @@
       <c r="E71">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="E72">
         <v>7717</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4393,8 +4613,11 @@
       <c r="E73">
         <v>1420</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4410,8 +4633,11 @@
       <c r="E74">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4427,8 +4653,11 @@
       <c r="E75">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4444,8 +4673,11 @@
       <c r="E76">
         <v>101617</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4461,8 +4693,11 @@
       <c r="E77">
         <v>2194</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4713,11 @@
       <c r="E78">
         <v>2372</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4495,8 +4733,11 @@
       <c r="E79">
         <v>113835</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4512,8 +4753,11 @@
       <c r="E80">
         <v>73321</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4529,8 +4773,11 @@
       <c r="E81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4546,8 +4793,11 @@
       <c r="E82">
         <v>376</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4563,8 +4813,11 @@
       <c r="E83">
         <v>56</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4580,8 +4833,11 @@
       <c r="E84">
         <v>432</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4597,8 +4853,11 @@
       <c r="E85">
         <v>8908</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4873,11 @@
       <c r="E86">
         <v>354</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4631,8 +4893,11 @@
       <c r="E87">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4648,8 +4913,11 @@
       <c r="E88">
         <v>1762</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4665,8 +4933,11 @@
       <c r="E89">
         <v>225</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4682,8 +4953,11 @@
       <c r="E90">
         <v>30378</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4699,8 +4973,11 @@
       <c r="E91">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4716,8 +4993,11 @@
       <c r="E92">
         <v>1053</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4733,8 +5013,11 @@
       <c r="E93">
         <v>573</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4750,8 +5033,11 @@
       <c r="E94">
         <v>253</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4767,8 +5053,11 @@
       <c r="E95">
         <v>270</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4784,8 +5073,11 @@
       <c r="E96">
         <v>118</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4801,8 +5093,11 @@
       <c r="E97">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4818,8 +5113,11 @@
       <c r="E98">
         <v>171</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4835,8 +5133,11 @@
       <c r="E99">
         <v>77</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4852,8 +5153,11 @@
       <c r="E100">
         <v>4307</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4869,8 +5173,11 @@
       <c r="E101">
         <v>19476</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4886,8 +5193,11 @@
       <c r="E102">
         <v>2890</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4903,8 +5213,11 @@
       <c r="E103">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4920,8 +5233,11 @@
       <c r="E104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4937,8 +5253,11 @@
       <c r="E105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4954,8 +5273,11 @@
       <c r="E106">
         <v>244</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4971,8 +5293,11 @@
       <c r="E107">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4988,8 +5313,11 @@
       <c r="E108">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5005,8 +5333,11 @@
       <c r="E109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5022,8 +5353,11 @@
       <c r="E110">
         <v>384</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5039,8 +5373,11 @@
       <c r="E111">
         <v>1228</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5056,8 +5393,11 @@
       <c r="E112">
         <v>1081</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5073,8 +5413,11 @@
       <c r="E113">
         <v>435</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5090,8 +5433,11 @@
       <c r="E114">
         <v>89</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5107,8 +5453,11 @@
       <c r="E115">
         <v>83</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5124,8 +5473,11 @@
       <c r="E116">
         <v>339</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5141,8 +5493,11 @@
       <c r="E117">
         <v>431</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5158,8 +5513,11 @@
       <c r="E118">
         <v>628</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5175,8 +5533,11 @@
       <c r="E119">
         <v>790</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5192,8 +5553,11 @@
       <c r="E120">
         <v>5177</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -5209,8 +5573,11 @@
       <c r="E121">
         <v>82</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -5226,8 +5593,11 @@
       <c r="E122">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -5243,8 +5613,11 @@
       <c r="E123">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -5260,8 +5633,11 @@
       <c r="E124">
         <v>2066</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -5277,8 +5653,11 @@
       <c r="E125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -5294,8 +5673,11 @@
       <c r="E126">
         <v>307</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -5311,8 +5693,11 @@
       <c r="E127">
         <v>1049</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5327,6 +5712,9 @@
       </c>
       <c r="E128">
         <v>22</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.6">
@@ -5345,6 +5733,9 @@
       <c r="E129">
         <v>65</v>
       </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.6">
@@ -5363,6 +5754,9 @@
       <c r="E130">
         <v>2112</v>
       </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.6">
@@ -5381,6 +5775,9 @@
       <c r="E131">
         <v>2185</v>
       </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.6">
@@ -5399,6 +5796,9 @@
       <c r="E132">
         <v>227</v>
       </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.6">
@@ -5417,6 +5817,9 @@
       <c r="E133">
         <v>151</v>
       </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.6">
@@ -5435,6 +5838,9 @@
       <c r="E134">
         <v>7120</v>
       </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.6">
@@ -5453,6 +5859,9 @@
       <c r="E135">
         <v>865</v>
       </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.6">
@@ -5471,6 +5880,9 @@
       <c r="E136">
         <v>6</v>
       </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.6">
@@ -5489,6 +5901,9 @@
       <c r="E137">
         <v>1617</v>
       </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.6">
@@ -5507,6 +5922,9 @@
       <c r="E138">
         <v>130</v>
       </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.6">
@@ -5525,6 +5943,9 @@
       <c r="E139">
         <v>0</v>
       </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.6">
@@ -5543,6 +5964,9 @@
       <c r="E140">
         <v>12457</v>
       </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.6">
@@ -5561,6 +5985,9 @@
       <c r="E141">
         <v>180</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.6">
@@ -5579,6 +6006,9 @@
       <c r="E142">
         <v>5497</v>
       </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.6">
@@ -5597,6 +6027,9 @@
       <c r="E143">
         <v>5428</v>
       </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.6">
@@ -5615,6 +6048,9 @@
       <c r="E144">
         <v>5150</v>
       </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
       <c r="H144" s="3"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.6">
@@ -5633,6 +6069,9 @@
       <c r="E145">
         <v>2368</v>
       </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
       <c r="H145" s="3"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.6">
@@ -5651,6 +6090,9 @@
       <c r="E146">
         <v>75</v>
       </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
       <c r="H146" s="3"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.6">
@@ -5669,6 +6111,9 @@
       <c r="E147">
         <v>41</v>
       </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
       <c r="H147" s="3"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.6">
@@ -5687,6 +6132,9 @@
       <c r="E148">
         <v>0</v>
       </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
       <c r="H148" s="3"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.6">
@@ -5705,6 +6153,9 @@
       <c r="E149">
         <v>1</v>
       </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.6">
@@ -5723,6 +6174,9 @@
       <c r="E150">
         <v>10</v>
       </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
       <c r="H150" s="3"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.6">
@@ -5741,6 +6195,9 @@
       <c r="E151">
         <v>5</v>
       </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
       <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.6">
@@ -5759,6 +6216,9 @@
       <c r="E152">
         <v>3</v>
       </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.6">
@@ -5777,6 +6237,9 @@
       <c r="E153">
         <v>293</v>
       </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.6">
@@ -5795,6 +6258,9 @@
       <c r="E154">
         <v>3</v>
       </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
       <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.6">
@@ -5813,6 +6279,9 @@
       <c r="E155">
         <v>1921</v>
       </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.6">
@@ -5831,6 +6300,9 @@
       <c r="E156">
         <v>0</v>
       </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
       <c r="H156" s="3"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.6">
@@ -5849,6 +6321,9 @@
       <c r="E157">
         <v>822</v>
       </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
       <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.6">
@@ -5867,6 +6342,9 @@
       <c r="E158">
         <v>1876</v>
       </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
       <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.6">
@@ -5885,6 +6363,9 @@
       <c r="E159">
         <v>925</v>
       </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
       <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.6">
@@ -5903,6 +6384,9 @@
       <c r="E160">
         <v>4677</v>
       </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
       <c r="H160" s="3"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.6">
@@ -5921,6 +6405,9 @@
       <c r="E161">
         <v>42694</v>
       </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
       <c r="H161" s="3"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.6">
@@ -5939,6 +6426,9 @@
       <c r="E162">
         <v>4</v>
       </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
       <c r="H162" s="3"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.6">
@@ -5957,6 +6447,9 @@
       <c r="E163">
         <v>132</v>
       </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
       <c r="H163" s="3"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.6">
@@ -5975,6 +6468,9 @@
       <c r="E164">
         <v>753</v>
       </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.6">
@@ -5993,6 +6489,9 @@
       <c r="E165">
         <v>0</v>
       </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
       <c r="H165" s="3"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.6">
@@ -6011,6 +6510,9 @@
       <c r="E166">
         <v>66</v>
       </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.6">
@@ -6029,6 +6531,9 @@
       <c r="E167">
         <v>46</v>
       </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
       <c r="H167" s="3"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.6">
@@ -6047,6 +6552,9 @@
       <c r="E168">
         <v>18</v>
       </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
       <c r="H168" s="3"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.6">
@@ -6065,6 +6573,9 @@
       <c r="E169">
         <v>26</v>
       </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
       <c r="H169" s="3"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.6">
@@ -6083,6 +6594,9 @@
       <c r="E170">
         <v>0</v>
       </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
       <c r="H170" s="3"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.6">
@@ -6101,6 +6615,9 @@
       <c r="E171">
         <v>2</v>
       </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.6">
@@ -6119,6 +6636,9 @@
       <c r="E172">
         <v>0</v>
       </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.6">
@@ -6137,6 +6657,9 @@
       <c r="E173">
         <v>21</v>
       </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.6">
@@ -6155,6 +6678,9 @@
       <c r="E174">
         <v>9</v>
       </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.6">
@@ -6173,6 +6699,9 @@
       <c r="E175">
         <v>0</v>
       </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
       <c r="H175" s="3"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.6">
@@ -6191,6 +6720,9 @@
       <c r="E176">
         <v>0</v>
       </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.6">
@@ -6209,6 +6741,9 @@
       <c r="E177">
         <v>20</v>
       </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.6">
@@ -6227,6 +6762,9 @@
       <c r="E178">
         <v>1153</v>
       </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
       <c r="H178" s="3"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.6">
@@ -6245,6 +6783,9 @@
       <c r="E179">
         <v>0</v>
       </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
       <c r="H179" s="3"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.6">
@@ -6263,6 +6804,9 @@
       <c r="E180">
         <v>28</v>
       </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
       <c r="H180" s="3"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.6">
@@ -6281,6 +6825,9 @@
       <c r="E181">
         <v>0</v>
       </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
       <c r="H181" s="3"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.6">
@@ -6299,6 +6846,9 @@
       <c r="E182">
         <v>1897</v>
       </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.6">
@@ -6317,6 +6867,9 @@
       <c r="E183">
         <v>81</v>
       </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
       <c r="H183" s="3"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.6">
@@ -6335,6 +6888,9 @@
       <c r="E184">
         <v>2213</v>
       </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
       <c r="H184" s="3"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.6">
@@ -6353,6 +6909,9 @@
       <c r="E185">
         <v>218</v>
       </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
       <c r="H185" s="3"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.6">
@@ -6371,6 +6930,9 @@
       <c r="E186">
         <v>63</v>
       </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
       <c r="H186" s="3"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.6">
@@ -6389,6 +6951,9 @@
       <c r="E187">
         <v>46</v>
       </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
       <c r="H187" s="3"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.6">
@@ -6407,6 +6972,9 @@
       <c r="E188">
         <v>145</v>
       </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
       <c r="H188" s="3"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.6">
@@ -6425,6 +6993,9 @@
       <c r="E189">
         <v>3</v>
       </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
       <c r="H189" s="3"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.6">
@@ -6443,6 +7014,9 @@
       <c r="E190">
         <v>0</v>
       </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.6">
@@ -6461,6 +7035,9 @@
       <c r="E191">
         <v>0</v>
       </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.6">
@@ -6479,6 +7056,9 @@
       <c r="E192">
         <v>22147</v>
       </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.6">
@@ -6497,6 +7077,9 @@
       <c r="E193">
         <v>34</v>
       </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
       <c r="H193" s="3"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.6">
@@ -6515,6 +7098,9 @@
       <c r="E194">
         <v>12</v>
       </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.6">
@@ -6533,6 +7119,9 @@
       <c r="E195">
         <v>0</v>
       </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
       <c r="H195" s="3"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.6">
@@ -6551,6 +7140,9 @@
       <c r="E196">
         <v>1</v>
       </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.6">
@@ -6569,6 +7161,9 @@
       <c r="E197">
         <v>125</v>
       </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.6">
@@ -6587,6 +7182,9 @@
       <c r="E198">
         <v>27</v>
       </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.6">
@@ -6605,6 +7203,9 @@
       <c r="E199">
         <v>89</v>
       </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.6">
@@ -6623,6 +7224,9 @@
       <c r="E200">
         <v>0</v>
       </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.6">
@@ -6641,6 +7245,9 @@
       <c r="E201">
         <v>0</v>
       </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.6">
@@ -6659,6 +7266,9 @@
       <c r="E202">
         <v>3</v>
       </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.6">
@@ -6677,6 +7287,9 @@
       <c r="E203">
         <v>162</v>
       </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.6">
@@ -6695,6 +7308,9 @@
       <c r="E204">
         <v>0</v>
       </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.6">
@@ -6713,6 +7329,9 @@
       <c r="E205">
         <v>167</v>
       </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.6">
@@ -6731,6 +7350,9 @@
       <c r="E206">
         <v>9</v>
       </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.6">
@@ -6749,6 +7371,9 @@
       <c r="E207">
         <v>55</v>
       </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.6">
@@ -6767,6 +7392,9 @@
       <c r="E208">
         <v>14270</v>
       </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
       <c r="H208" s="3"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.6">
@@ -6785,6 +7413,9 @@
       <c r="E209">
         <v>4</v>
       </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.6">
@@ -6803,6 +7434,9 @@
       <c r="E210">
         <v>34</v>
       </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.6">
@@ -6821,6 +7455,9 @@
       <c r="E211">
         <v>456</v>
       </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
       <c r="H211" s="3"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.6">
@@ -6839,6 +7476,9 @@
       <c r="E212">
         <v>1</v>
       </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.6">
@@ -6857,6 +7497,9 @@
       <c r="E213">
         <v>909</v>
       </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.6">
@@ -6875,6 +7518,9 @@
       <c r="E214">
         <v>4</v>
       </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
       <c r="H214" s="3"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.6">
@@ -6893,6 +7539,9 @@
       <c r="E215">
         <v>8</v>
       </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
       <c r="H215" s="3"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.6">
@@ -6911,6 +7560,9 @@
       <c r="E216">
         <v>161</v>
       </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
       <c r="H216" s="3"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.6">
@@ -6929,6 +7581,9 @@
       <c r="E217">
         <v>0</v>
       </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.6">
@@ -6947,6 +7602,9 @@
       <c r="E218">
         <v>3319</v>
       </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
       <c r="H218" s="3"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.6">
@@ -6965,6 +7623,9 @@
       <c r="E219">
         <v>0</v>
       </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
       <c r="H219" s="3"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.6">
@@ -6983,6 +7644,9 @@
       <c r="E220">
         <v>0</v>
       </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
       <c r="H220" s="3"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.6">
@@ -7001,6 +7665,9 @@
       <c r="E221">
         <v>244</v>
       </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
       <c r="H221" s="3"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.6">
@@ -7019,6 +7686,9 @@
       <c r="E222">
         <v>4812</v>
       </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
       <c r="H222" s="3"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.6">
@@ -7037,6 +7707,9 @@
       <c r="E223">
         <v>1</v>
       </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.6">
@@ -7055,6 +7728,9 @@
       <c r="E224">
         <v>0</v>
       </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
       <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.6">
@@ -7073,6 +7749,9 @@
       <c r="E225">
         <v>715</v>
       </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
       <c r="H225" s="3"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.6">
@@ -7091,6 +7770,9 @@
       <c r="E226">
         <v>0</v>
       </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.6">
@@ -7109,6 +7791,9 @@
       <c r="E227">
         <v>401</v>
       </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
       <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.6">
@@ -7127,6 +7812,9 @@
       <c r="E228">
         <v>324</v>
       </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
       <c r="H228" s="3"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.6">
@@ -7145,6 +7833,9 @@
       <c r="E229">
         <v>1692</v>
       </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
       <c r="H229" s="3"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.6">
@@ -7163,6 +7854,9 @@
       <c r="E230">
         <v>53</v>
       </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.6">
@@ -7181,6 +7875,9 @@
       <c r="E231">
         <v>57</v>
       </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.6">
@@ -7199,6 +7896,9 @@
       <c r="E232">
         <v>24</v>
       </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
       <c r="H232" s="3"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.6">
@@ -7217,6 +7917,9 @@
       <c r="E233">
         <v>2789</v>
       </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
       <c r="H233" s="3"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.6">
@@ -7235,6 +7938,9 @@
       <c r="E234">
         <v>963</v>
       </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.6">
@@ -7253,6 +7959,9 @@
       <c r="E235">
         <v>2380</v>
       </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.6">
@@ -7271,6 +7980,9 @@
       <c r="E236">
         <v>13</v>
       </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
       <c r="H236" s="3"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.6">
@@ -7289,6 +8001,9 @@
       <c r="E237">
         <v>174</v>
       </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
       <c r="H237" s="3"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.6">
@@ -7307,6 +8022,9 @@
       <c r="E238">
         <v>1401</v>
       </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.6">
@@ -7325,6 +8043,9 @@
       <c r="E239">
         <v>109</v>
       </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.6">
@@ -7343,6 +8064,9 @@
       <c r="E240">
         <v>4</v>
       </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
       <c r="H240" s="3"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.6">
@@ -7361,6 +8085,9 @@
       <c r="E241">
         <v>0</v>
       </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.6">
@@ -7379,6 +8106,9 @@
       <c r="E242">
         <v>12</v>
       </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
       <c r="H242" s="3"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.6">
@@ -7397,6 +8127,9 @@
       <c r="E243">
         <v>12425</v>
       </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.6">
@@ -7415,6 +8148,9 @@
       <c r="E244">
         <v>951</v>
       </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
       <c r="H244" s="3"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.6">
@@ -7433,6 +8169,9 @@
       <c r="E245">
         <v>18</v>
       </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
       <c r="H245" s="3"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.6">
@@ -7451,6 +8190,9 @@
       <c r="E246">
         <v>92</v>
       </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
       <c r="H246" s="3"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.6">
@@ -7469,6 +8211,9 @@
       <c r="E247">
         <v>547</v>
       </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
       <c r="H247" s="3"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.6">
@@ -7487,6 +8232,9 @@
       <c r="E248">
         <v>116</v>
       </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
       <c r="H248" s="3"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.6">
@@ -7505,6 +8253,9 @@
       <c r="E249">
         <v>18</v>
       </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.6">
@@ -7523,6 +8274,9 @@
       <c r="E250">
         <v>0</v>
       </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.6">
@@ -7541,6 +8295,9 @@
       <c r="E251">
         <v>0</v>
       </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
       <c r="H251" s="3"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.6">
@@ -7559,6 +8316,9 @@
       <c r="E252">
         <v>89</v>
       </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
       <c r="H252" s="3"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.6">
@@ -7577,6 +8337,9 @@
       <c r="E253">
         <v>31</v>
       </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.6">
@@ -7595,6 +8358,9 @@
       <c r="E254">
         <v>401</v>
       </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
       <c r="H254" s="3"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.6">
@@ -7613,6 +8379,9 @@
       <c r="E255">
         <v>93</v>
       </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.6">
@@ -7631,6 +8400,9 @@
       <c r="E256">
         <v>63</v>
       </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
       <c r="H256" s="3"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.6">
@@ -7649,6 +8421,9 @@
       <c r="E257">
         <v>0</v>
       </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
       <c r="H257" s="3"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.6">
@@ -7667,6 +8442,9 @@
       <c r="E258">
         <v>69</v>
       </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
       <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.6">
@@ -7685,6 +8463,9 @@
       <c r="E259">
         <v>0</v>
       </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
       <c r="H259" s="3"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.6">
@@ -7703,6 +8484,9 @@
       <c r="E260">
         <v>61</v>
       </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
       <c r="H260" s="3"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.6">
@@ -7721,6 +8505,9 @@
       <c r="E261">
         <v>3</v>
       </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
       <c r="H261" s="3"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.6">
@@ -7739,6 +8526,9 @@
       <c r="E262">
         <v>0</v>
       </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
@@ -7756,6 +8546,9 @@
       <c r="E263">
         <v>0</v>
       </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
@@ -7773,6 +8566,9 @@
       <c r="E264">
         <v>2778</v>
       </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
@@ -7790,6 +8586,9 @@
       <c r="E265">
         <v>371</v>
       </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
@@ -7807,6 +8606,9 @@
       <c r="E266">
         <v>15</v>
       </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
@@ -7824,6 +8626,9 @@
       <c r="E267">
         <v>3667</v>
       </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
@@ -7841,6 +8646,9 @@
       <c r="E268">
         <v>24</v>
       </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
@@ -7858,6 +8666,9 @@
       <c r="E269">
         <v>3</v>
       </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A270" s="3" t="s">
@@ -7875,6 +8686,9 @@
       <c r="E270" s="6">
         <v>1066</v>
       </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A271" s="3" t="s">
@@ -7892,6 +8706,9 @@
       <c r="E271" s="6">
         <v>3556</v>
       </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A272" s="3" t="s">
@@ -7909,8 +8726,11 @@
       <c r="E272" s="6">
         <v>2061</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A273" s="3" t="s">
         <v>543</v>
       </c>
@@ -7926,8 +8746,11 @@
       <c r="E273" s="6">
         <v>825</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A274" s="3" t="s">
         <v>544</v>
       </c>
@@ -7943,8 +8766,11 @@
       <c r="E274" s="6">
         <v>1559</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A275" s="3" t="s">
         <v>545</v>
       </c>
@@ -7960,8 +8786,11 @@
       <c r="E275" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A276" s="3" t="s">
         <v>546</v>
       </c>
@@ -7977,8 +8806,11 @@
       <c r="E276" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A277" s="3" t="s">
         <v>547</v>
       </c>
@@ -7994,8 +8826,11 @@
       <c r="E277" s="6">
         <v>3521</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A278" s="3" t="s">
         <v>548</v>
       </c>
@@ -8011,8 +8846,11 @@
       <c r="E278" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A279" s="3" t="s">
         <v>549</v>
       </c>
@@ -8028,8 +8866,11 @@
       <c r="E279" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A280" s="3" t="s">
         <v>550</v>
       </c>
@@ -8045,8 +8886,11 @@
       <c r="E280" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A281" s="3" t="s">
         <v>551</v>
       </c>
@@ -8062,8 +8906,11 @@
       <c r="E281" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A282" s="3" t="s">
         <v>552</v>
       </c>
@@ -8079,8 +8926,11 @@
       <c r="E282" s="6">
         <v>1154</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A283" s="3" t="s">
         <v>553</v>
       </c>
@@ -8096,8 +8946,11 @@
       <c r="E283" s="6">
         <v>151</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A284" s="3" t="s">
         <v>554</v>
       </c>
@@ -8113,8 +8966,11 @@
       <c r="E284" s="6">
         <v>8350</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A285" s="3" t="s">
         <v>555</v>
       </c>
@@ -8130,8 +8986,11 @@
       <c r="E285" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A286" s="3" t="s">
         <v>556</v>
       </c>
@@ -8147,8 +9006,11 @@
       <c r="E286" s="6">
         <v>542</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A287" s="3" t="s">
         <v>557</v>
       </c>
@@ -8164,8 +9026,11 @@
       <c r="E287" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A288" s="3" t="s">
         <v>558</v>
       </c>
@@ -8181,8 +9046,11 @@
       <c r="E288" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A289" s="3" t="s">
         <v>559</v>
       </c>
@@ -8198,8 +9066,11 @@
       <c r="E289" s="6">
         <v>986</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A290" s="3" t="s">
         <v>560</v>
       </c>
@@ -8215,8 +9086,11 @@
       <c r="E290" s="6">
         <v>134</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A291" s="3" t="s">
         <v>561</v>
       </c>
@@ -8232,8 +9106,11 @@
       <c r="E291" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A292" s="3" t="s">
         <v>562</v>
       </c>
@@ -8249,8 +9126,11 @@
       <c r="E292" s="6">
         <v>1427</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A293" s="3" t="s">
         <v>563</v>
       </c>
@@ -8266,8 +9146,11 @@
       <c r="E293" s="6">
         <v>493</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A294" s="3" t="s">
         <v>564</v>
       </c>
@@ -8283,8 +9166,11 @@
       <c r="E294" s="6">
         <v>466</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A295" s="3" t="s">
         <v>565</v>
       </c>
@@ -8300,8 +9186,11 @@
       <c r="E295" s="6">
         <v>10957</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A296" s="3" t="s">
         <v>566</v>
       </c>
@@ -8317,8 +9206,11 @@
       <c r="E296" s="6">
         <v>1620</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A297" s="3" t="s">
         <v>567</v>
       </c>
@@ -8334,8 +9226,11 @@
       <c r="E297" s="6">
         <v>315</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A298" s="3" t="s">
         <v>568</v>
       </c>
@@ -8351,8 +9246,11 @@
       <c r="E298" s="6">
         <v>2221</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A299" s="3" t="s">
         <v>569</v>
       </c>
@@ -8368,8 +9266,11 @@
       <c r="E299" s="6">
         <v>5804</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A300" s="3" t="s">
         <v>570</v>
       </c>
@@ -8385,8 +9286,11 @@
       <c r="E300" s="6">
         <v>1934</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A301" s="3" t="s">
         <v>571</v>
       </c>
@@ -8402,8 +9306,11 @@
       <c r="E301" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A302" s="3" t="s">
         <v>572</v>
       </c>
@@ -8419,8 +9326,11 @@
       <c r="E302" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A303" s="3" t="s">
         <v>573</v>
       </c>
@@ -8436,8 +9346,11 @@
       <c r="E303" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A304" s="3" t="s">
         <v>574</v>
       </c>
@@ -8453,8 +9366,11 @@
       <c r="E304" s="6">
         <v>588</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A305" s="3" t="s">
         <v>575</v>
       </c>
@@ -8470,8 +9386,11 @@
       <c r="E305" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A306" s="3" t="s">
         <v>576</v>
       </c>
@@ -8487,8 +9406,11 @@
       <c r="E306" s="6">
         <v>4097</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A307" s="3" t="s">
         <v>577</v>
       </c>
@@ -8504,8 +9426,11 @@
       <c r="E307" s="6">
         <v>421</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A308" s="3" t="s">
         <v>578</v>
       </c>
@@ -8521,8 +9446,11 @@
       <c r="E308" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A309" s="3" t="s">
         <v>579</v>
       </c>
@@ -8538,8 +9466,11 @@
       <c r="E309" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A310" s="3" t="s">
         <v>580</v>
       </c>
@@ -8555,8 +9486,11 @@
       <c r="E310" s="6">
         <v>148</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A311" s="3" t="s">
         <v>581</v>
       </c>
@@ -8572,8 +9506,11 @@
       <c r="E311" s="6">
         <v>212</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A312" s="3" t="s">
         <v>582</v>
       </c>
@@ -8589,8 +9526,11 @@
       <c r="E312" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A313" s="3" t="s">
         <v>583</v>
       </c>
@@ -8606,8 +9546,11 @@
       <c r="E313" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A314" s="3" t="s">
         <v>584</v>
       </c>
@@ -8623,8 +9566,11 @@
       <c r="E314" s="6">
         <v>4753</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A315" s="3" t="s">
         <v>585</v>
       </c>
@@ -8640,8 +9586,11 @@
       <c r="E315" s="6">
         <v>1323</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A316" s="3" t="s">
         <v>586</v>
       </c>
@@ -8657,8 +9606,11 @@
       <c r="E316" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A317" s="3" t="s">
         <v>587</v>
       </c>
@@ -8674,8 +9626,11 @@
       <c r="E317" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A318" s="3" t="s">
         <v>588</v>
       </c>
@@ -8691,8 +9646,11 @@
       <c r="E318" s="6">
         <v>157</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A319" s="3" t="s">
         <v>589</v>
       </c>
@@ -8708,8 +9666,11 @@
       <c r="E319" s="6">
         <v>295</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A320" s="3" t="s">
         <v>590</v>
       </c>
@@ -8725,8 +9686,11 @@
       <c r="E320" s="6">
         <v>852</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A321" s="3" t="s">
         <v>591</v>
       </c>
@@ -8742,8 +9706,11 @@
       <c r="E321" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A322" s="3" t="s">
         <v>592</v>
       </c>
@@ -8759,8 +9726,11 @@
       <c r="E322" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A323" s="3" t="s">
         <v>593</v>
       </c>
@@ -8776,8 +9746,11 @@
       <c r="E323" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A324" s="3" t="s">
         <v>594</v>
       </c>
@@ -8793,8 +9766,11 @@
       <c r="E324" s="6">
         <v>261</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A325" s="3" t="s">
         <v>595</v>
       </c>
@@ -8810,8 +9786,11 @@
       <c r="E325" s="6">
         <v>1009</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A326" s="3" t="s">
         <v>596</v>
       </c>
@@ -8827,8 +9806,11 @@
       <c r="E326" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A327" s="3" t="s">
         <v>597</v>
       </c>
@@ -8844,8 +9826,11 @@
       <c r="E327" s="6">
         <v>528</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A328" s="3" t="s">
         <v>598</v>
       </c>
@@ -8861,8 +9846,11 @@
       <c r="E328" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A329" s="3" t="s">
         <v>599</v>
       </c>
@@ -8878,8 +9866,11 @@
       <c r="E329" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A330" s="3" t="s">
         <v>600</v>
       </c>
@@ -8895,8 +9886,11 @@
       <c r="E330" s="6">
         <v>200</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A331" s="3" t="s">
         <v>601</v>
       </c>
@@ -8912,8 +9906,11 @@
       <c r="E331" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A332" s="3" t="s">
         <v>602</v>
       </c>
@@ -8929,8 +9926,11 @@
       <c r="E332" s="6">
         <v>3131</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A333" s="3" t="s">
         <v>603</v>
       </c>
@@ -8946,8 +9946,11 @@
       <c r="E333" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A334" s="3" t="s">
         <v>604</v>
       </c>
@@ -8963,8 +9966,11 @@
       <c r="E334" s="6">
         <v>5658</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A335" s="3" t="s">
         <v>605</v>
       </c>
@@ -8980,8 +9986,11 @@
       <c r="E335" s="6">
         <v>12442</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A336" s="3" t="s">
         <v>606</v>
       </c>
@@ -8997,8 +10006,11 @@
       <c r="E336" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A337" s="3" t="s">
         <v>607</v>
       </c>
@@ -9014,8 +10026,11 @@
       <c r="E337" s="6">
         <v>146</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A338" s="3" t="s">
         <v>608</v>
       </c>
@@ -9031,8 +10046,11 @@
       <c r="E338" s="6">
         <v>892</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A339" s="3" t="s">
         <v>609</v>
       </c>
@@ -9048,8 +10066,11 @@
       <c r="E339" s="6">
         <v>1585</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A340" s="3" t="s">
         <v>610</v>
       </c>
@@ -9065,8 +10086,11 @@
       <c r="E340" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A341" s="3" t="s">
         <v>611</v>
       </c>
@@ -9082,8 +10106,11 @@
       <c r="E341" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A342" s="3" t="s">
         <v>612</v>
       </c>
@@ -9099,8 +10126,11 @@
       <c r="E342" s="6">
         <v>328</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A343" s="3" t="s">
         <v>613</v>
       </c>
@@ -9116,8 +10146,11 @@
       <c r="E343" s="6">
         <v>96</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A344" s="3" t="s">
         <v>614</v>
       </c>
@@ -9133,8 +10166,11 @@
       <c r="E344" s="6">
         <v>147</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A345" s="3" t="s">
         <v>615</v>
       </c>
@@ -9150,8 +10186,11 @@
       <c r="E345" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A346" s="3" t="s">
         <v>616</v>
       </c>
@@ -9167,8 +10206,11 @@
       <c r="E346" s="6">
         <v>400</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A347" s="3" t="s">
         <v>617</v>
       </c>
@@ -9184,8 +10226,11 @@
       <c r="E347" s="6">
         <v>164</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A348" s="3" t="s">
         <v>618</v>
       </c>
@@ -9201,8 +10246,11 @@
       <c r="E348" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A349" s="3" t="s">
         <v>619</v>
       </c>
@@ -9218,8 +10266,11 @@
       <c r="E349" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A350" s="3" t="s">
         <v>620</v>
       </c>
@@ -9235,8 +10286,11 @@
       <c r="E350" s="6">
         <v>77</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A351" s="3" t="s">
         <v>621</v>
       </c>
@@ -9252,8 +10306,11 @@
       <c r="E351" s="6">
         <v>10376</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A352" s="3" t="s">
         <v>622</v>
       </c>
@@ -9269,8 +10326,11 @@
       <c r="E352" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A353" s="3" t="s">
         <v>623</v>
       </c>
@@ -9286,8 +10346,11 @@
       <c r="E353" s="6">
         <v>1840</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A354" s="3" t="s">
         <v>624</v>
       </c>
@@ -9303,8 +10366,11 @@
       <c r="E354" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A355" s="3" t="s">
         <v>625</v>
       </c>
@@ -9320,8 +10386,11 @@
       <c r="E355" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A356" s="3" t="s">
         <v>626</v>
       </c>
@@ -9337,8 +10406,11 @@
       <c r="E356" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A357" s="3" t="s">
         <v>627</v>
       </c>
@@ -9354,8 +10426,11 @@
       <c r="E357" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A358" s="3" t="s">
         <v>628</v>
       </c>
@@ -9371,8 +10446,11 @@
       <c r="E358" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A359" s="3" t="s">
         <v>629</v>
       </c>
@@ -9388,8 +10466,11 @@
       <c r="E359" s="6">
         <v>1277</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A360" s="3" t="s">
         <v>630</v>
       </c>
@@ -9405,8 +10486,11 @@
       <c r="E360" s="6">
         <v>1204</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A361" s="3" t="s">
         <v>631</v>
       </c>
@@ -9422,8 +10506,11 @@
       <c r="E361" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A362" s="3" t="s">
         <v>632</v>
       </c>
@@ -9439,8 +10526,11 @@
       <c r="E362" s="6">
         <v>114</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A363" s="3" t="s">
         <v>633</v>
       </c>
@@ -9456,8 +10546,11 @@
       <c r="E363" s="6">
         <v>1559</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A364" s="3" t="s">
         <v>634</v>
       </c>
@@ -9473,8 +10566,11 @@
       <c r="E364" s="6">
         <v>475</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A365" s="3" t="s">
         <v>635</v>
       </c>
@@ -9490,8 +10586,11 @@
       <c r="E365" s="6">
         <v>1638</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A366" s="3" t="s">
         <v>636</v>
       </c>
@@ -9507,8 +10606,11 @@
       <c r="E366" s="6">
         <v>2594</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A367" s="3" t="s">
         <v>637</v>
       </c>
@@ -9524,8 +10626,11 @@
       <c r="E367" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A368" s="3" t="s">
         <v>638</v>
       </c>
@@ -9541,8 +10646,11 @@
       <c r="E368" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A369" s="3" t="s">
         <v>639</v>
       </c>
@@ -9558,8 +10666,11 @@
       <c r="E369" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A370" s="3" t="s">
         <v>640</v>
       </c>
@@ -9575,8 +10686,11 @@
       <c r="E370" s="6">
         <v>26197</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A371" s="3" t="s">
         <v>641</v>
       </c>
@@ -9592,8 +10706,11 @@
       <c r="E371" s="6">
         <v>3202</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A372" s="3" t="s">
         <v>642</v>
       </c>
@@ -9609,8 +10726,11 @@
       <c r="E372" s="6">
         <v>389</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A373" s="3" t="s">
         <v>643</v>
       </c>
@@ -9626,8 +10746,11 @@
       <c r="E373" s="6">
         <v>1275</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A374" s="3" t="s">
         <v>644</v>
       </c>
@@ -9643,8 +10766,11 @@
       <c r="E374" s="6">
         <v>1221</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A375" s="3" t="s">
         <v>645</v>
       </c>
@@ -9660,8 +10786,11 @@
       <c r="E375" s="6">
         <v>1035</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A376" s="3" t="s">
         <v>646</v>
       </c>
@@ -9677,8 +10806,11 @@
       <c r="E376" s="6">
         <v>1488</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A377" s="3" t="s">
         <v>647</v>
       </c>
@@ -9694,8 +10826,11 @@
       <c r="E377" s="6">
         <v>262</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A378" s="3" t="s">
         <v>648</v>
       </c>
@@ -9711,8 +10846,11 @@
       <c r="E378" s="6">
         <v>174</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A379" s="3" t="s">
         <v>649</v>
       </c>
@@ -9728,8 +10866,11 @@
       <c r="E379" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A380" s="3" t="s">
         <v>650</v>
       </c>
@@ -9745,8 +10886,11 @@
       <c r="E380" s="6">
         <v>103</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A381" s="3" t="s">
         <v>651</v>
       </c>
@@ -9762,8 +10906,11 @@
       <c r="E381" s="6">
         <v>339</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A382" s="3" t="s">
         <v>652</v>
       </c>
@@ -9779,8 +10926,11 @@
       <c r="E382" s="6">
         <v>143</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A383" s="3" t="s">
         <v>653</v>
       </c>
@@ -9796,8 +10946,11 @@
       <c r="E383" s="6">
         <v>282</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A384" s="3" t="s">
         <v>654</v>
       </c>
@@ -9813,8 +10966,11 @@
       <c r="E384" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A385" s="3" t="s">
         <v>655</v>
       </c>
@@ -9830,8 +10986,11 @@
       <c r="E385" s="6">
         <v>394</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A386" s="3" t="s">
         <v>656</v>
       </c>
@@ -9847,8 +11006,11 @@
       <c r="E386" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A387" s="3" t="s">
         <v>657</v>
       </c>
@@ -9864,8 +11026,11 @@
       <c r="E387" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A388" s="3" t="s">
         <v>658</v>
       </c>
@@ -9881,8 +11046,11 @@
       <c r="E388" s="6">
         <v>1183</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A389" s="3" t="s">
         <v>659</v>
       </c>
@@ -9898,8 +11066,11 @@
       <c r="E389" s="6">
         <v>2046</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A390" s="3" t="s">
         <v>660</v>
       </c>
@@ -9915,8 +11086,11 @@
       <c r="E390" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A391" s="3" t="s">
         <v>661</v>
       </c>
@@ -9932,8 +11106,11 @@
       <c r="E391" s="6">
         <v>242</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A392" s="3" t="s">
         <v>662</v>
       </c>
@@ -9949,8 +11126,11 @@
       <c r="E392" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A393" s="3" t="s">
         <v>663</v>
       </c>
@@ -9966,8 +11146,11 @@
       <c r="E393" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A394" s="3" t="s">
         <v>664</v>
       </c>
@@ -9983,8 +11166,11 @@
       <c r="E394" s="6">
         <v>5255</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A395" s="3" t="s">
         <v>665</v>
       </c>
@@ -10000,8 +11186,11 @@
       <c r="E395" s="6">
         <v>1031</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A396" s="3" t="s">
         <v>666</v>
       </c>
@@ -10017,8 +11206,11 @@
       <c r="E396" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A397" s="3" t="s">
         <v>667</v>
       </c>
@@ -10034,8 +11226,11 @@
       <c r="E397" s="6">
         <v>382</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A398" s="3" t="s">
         <v>668</v>
       </c>
@@ -10051,8 +11246,11 @@
       <c r="E398" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A399" s="3" t="s">
         <v>669</v>
       </c>
@@ -10068,8 +11266,11 @@
       <c r="E399" s="6">
         <v>1221</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A400" s="3" t="s">
         <v>670</v>
       </c>
@@ -10085,8 +11286,11 @@
       <c r="E400" s="6">
         <v>1192</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A401" s="3" t="s">
         <v>671</v>
       </c>
@@ -10102,8 +11306,11 @@
       <c r="E401" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A402" s="3" t="s">
         <v>672</v>
       </c>
@@ -10119,9 +11326,12 @@
       <c r="E402" s="6">
         <v>135</v>
       </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E402" xr:uid="{EED6421F-5CEC-438E-AD9F-B3F637A1CAA5}"/>
+  <autoFilter ref="A1:F402" xr:uid="{DAAD0434-9FE9-4E4B-A13B-E19885375391}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
